--- a/data/음식 라벨링 감정 7개.xlsx
+++ b/data/음식 라벨링 감정 7개.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ED_up\AI_Ediary\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\S\AI_Diary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="167">
   <si>
     <t>제목</t>
   </si>
@@ -353,337 +353,255 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>비타민B군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2019/03/09/15/14/tea-4044272__480.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트립토판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/single-fresh-raw-clean-isolated-one-alone-horizontally-oriented-on-picture-id1266340637?b=1&amp;k=20&amp;m=1266340637&amp;s=170667a&amp;w=0&amp;h=m215bqBaJETpZ5Tuyl2dhIdcfqpecCxBM7tXyAZzmn8=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리놀렌산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리놀렌산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코르티솔을 낮추는 초콜릿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2017/02/11/14/19/valentines-day-2057745__340.jpg</t>
+  </si>
+  <si>
+    <t>코르티솔을 낮추는 초콜릿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군&amp;엽산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2014/08/21/00/19/green-422995__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군&amp;엽산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2014/08/21/00/19/green-422995__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민B군&amp;엽산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단백질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/01/22/02/13/meat-1155132__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단백질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/01/22/02/13/meat-1155132__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장내 세균을 활성화시키는 버섯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로바이오틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2014/11/28/00/07/mushrooms-548360__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장내 세균을 활성화시키는 버섯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2014/11/28/00/07/mushrooms-548360__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활력을 불어넣어주는 베리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항산화성분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/different-berries-in-bowl-picture-id950603366?b=1&amp;k=20&amp;m=950603366&amp;s=170667a&amp;w=0&amp;h=DDkAe8KH_HRSci86gdIT5r0kWxNT3MMicHbSj3s8d0M=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활력을 불어넣어주는 베리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/photos/different-berries-in-bowl-picture-id950603366?b=1&amp;k=20&amp;m=950603366&amp;s=170667a&amp;w=0&amp;h=DDkAe8KH_HRSci86gdIT5r0kWxNT3MMicHbSj3s8d0M=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안을 지워주는 카레</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커큐민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2017/05/25/19/26/turmeric-2344157__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커큐민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌를 편안하게 하는 녹차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테아닌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2020/06/15/09/23/green-tea-5301025__340.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벤더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>마음을 편안하게 하는 허브티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>라벤더</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2019/03/09/15/14/tea-4044272__480.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트립토판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/single-fresh-raw-clean-isolated-one-alone-horizontally-oriented-on-picture-id1266340637?b=1&amp;k=20&amp;m=1266340637&amp;s=170667a&amp;w=0&amp;h=m215bqBaJETpZ5Tuyl2dhIdcfqpecCxBM7tXyAZzmn8=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리놀렌산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리놀렌산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불닭볶음면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캡사이신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캡사이신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://w.namu.la/s/f8ea5dfa74c21d3da3d743a9e795fcf1b222bd0d3aeac346cb6b3f5d37c34faf588574afcf63bccf802aa3094aff99f520d4ff67af36c5e3671fc2c27d8184611e94e87b0920c84e68e1f92349ecad5afe885c29dc75c0e639fceb4efca17f2aed9d4a58ef3cbba81c697ad2c66b0a80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불닭볶음면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://w.namu.la/s/f8ea5dfa74c21d3da3d743a9e795fcf1b222bd0d3aeac346cb6b3f5d37c34faf588574afcf63bccf802aa3094aff99f520d4ff67af36c5e3671fc2c27d8184611e94e87b0920c84e68e1f92349ecad5afe885c29dc75c0e639fceb4efca17f2aed9d4a58ef3cbba81c697ad2c66b0a80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코르티솔을 낮추는 초콜릿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>당</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2017/02/11/14/19/valentines-day-2057745__340.jpg</t>
-  </si>
-  <si>
-    <t>코르티솔을 낮추는 초콜릿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우을증을 개선하는 시금치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군&amp;엽산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2014/08/21/00/19/green-422995__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군&amp;엽산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2014/08/21/00/19/green-422995__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우을증을 개선하는 시금치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민B군&amp;엽산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단백질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://cdn.pixabay.com/photo/2016/01/22/02/13/meat-1155132__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단백질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기쁨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2016/01/22/02/13/meat-1155132__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단백질&amp;탄수화물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2015/03/11/00/31/chicken-667935__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단백질&amp;탄수화물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2015/03/11/00/31/chicken-667935__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2015/03/11/00/31/chicken-667935__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단백질&amp;탄수화물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장내 세균을 활성화시키는 버섯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로바이오틱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2014/11/28/00/07/mushrooms-548360__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장내 세균을 활성화시키는 버섯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2014/11/28/00/07/mushrooms-548360__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>활력을 불어넣어주는 베리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항산화성분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/different-berries-in-bowl-picture-id950603366?b=1&amp;k=20&amp;m=950603366&amp;s=170667a&amp;w=0&amp;h=DDkAe8KH_HRSci86gdIT5r0kWxNT3MMicHbSj3s8d0M=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>활력을 불어넣어주는 베리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/photos/different-berries-in-bowl-picture-id950603366?b=1&amp;k=20&amp;m=950603366&amp;s=170667a&amp;w=0&amp;h=DDkAe8KH_HRSci86gdIT5r0kWxNT3MMicHbSj3s8d0M=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안을 지워주는 카레</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커큐민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2017/05/25/19/26/turmeric-2344157__340.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커큐민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뇌를 편안하게 하는 녹차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테아닌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2020/06/15/09/23/green-tea-5301025__340.jpg</t>
+  </si>
+  <si>
+    <t>우울증을 개선하는 시금치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단백질이 풍부한 스테이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만성 스트레스를 완화해주는 연어(오메가3함유)</t>
+  </si>
+  <si>
+    <t>만성 스트레스를 완화해주는 연어(오메가3함유)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만성 스트레스를 완화해주는 연어(오메가3함유)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈압을 낮추는 호두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로토닌의 전구체를 품고있는 바나나</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1018,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:D127"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,7 +945,7 @@
     <col min="1" max="1" width="43.296875" customWidth="1"/>
     <col min="2" max="2" width="20.3984375" customWidth="1"/>
     <col min="3" max="3" width="27.69921875" customWidth="1"/>
-    <col min="4" max="4" width="51.8984375" customWidth="1"/>
+    <col min="4" max="4" width="84.5" customWidth="1"/>
     <col min="5" max="5" width="40.19921875" customWidth="1"/>
     <col min="6" max="6" width="25.69921875" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
@@ -1061,16 +979,16 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1085,16 +1003,16 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1109,16 +1027,16 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1127,16 +1045,16 @@
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -1151,16 +1069,16 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1175,16 +1093,16 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1193,16 +1111,16 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1217,16 +1135,16 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -1241,16 +1159,16 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1265,16 +1183,16 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1283,16 +1201,16 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -1307,16 +1225,16 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -1331,16 +1249,16 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -1355,16 +1273,16 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1373,16 +1291,16 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
@@ -1397,16 +1315,16 @@
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1421,16 +1339,16 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -1445,16 +1363,16 @@
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1463,16 +1381,16 @@
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1487,16 +1405,16 @@
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1505,16 +1423,16 @@
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1529,16 +1447,16 @@
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1547,16 +1465,16 @@
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1565,16 +1483,16 @@
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>92</v>
@@ -1585,16 +1503,16 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1603,16 +1521,16 @@
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>95</v>
@@ -1623,16 +1541,16 @@
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1643,16 +1561,16 @@
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1661,16 +1579,16 @@
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1679,16 +1597,16 @@
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1697,16 +1615,16 @@
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1715,16 +1633,16 @@
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1733,16 +1651,16 @@
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1751,16 +1669,16 @@
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1769,16 +1687,16 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1787,16 +1705,16 @@
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1805,16 +1723,16 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1823,16 +1741,16 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1841,16 +1759,16 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1859,16 +1777,16 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1877,16 +1795,16 @@
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1895,16 +1813,16 @@
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1913,16 +1831,16 @@
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1931,16 +1849,16 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1949,16 +1867,16 @@
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1967,16 +1885,16 @@
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1985,16 +1903,16 @@
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2003,16 +1921,16 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2021,16 +1939,16 @@
     </row>
     <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2039,16 +1957,16 @@
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2057,16 +1975,16 @@
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2075,16 +1993,16 @@
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2093,16 +2011,16 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2111,16 +2029,16 @@
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2129,16 +2047,16 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2147,16 +2065,16 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2165,16 +2083,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2183,16 +2101,16 @@
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2201,16 +2119,16 @@
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2219,16 +2137,16 @@
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2237,16 +2155,16 @@
     </row>
     <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2255,16 +2173,16 @@
     </row>
     <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>43</v>
@@ -2275,16 +2193,16 @@
     </row>
     <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2293,16 +2211,16 @@
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2311,16 +2229,16 @@
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2329,16 +2247,16 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2347,16 +2265,16 @@
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>44</v>
@@ -2367,16 +2285,16 @@
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>45</v>
@@ -2387,16 +2305,16 @@
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>46</v>
@@ -2407,16 +2325,16 @@
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>47</v>
@@ -2427,16 +2345,16 @@
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>48</v>
@@ -2447,16 +2365,16 @@
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>49</v>
@@ -2467,16 +2385,16 @@
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>50</v>
@@ -2487,16 +2405,16 @@
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>51</v>
@@ -2507,16 +2425,16 @@
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>52</v>
@@ -2527,16 +2445,16 @@
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2545,16 +2463,16 @@
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2563,16 +2481,16 @@
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2581,16 +2499,16 @@
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2599,16 +2517,16 @@
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2617,16 +2535,16 @@
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>53</v>
@@ -2637,16 +2555,16 @@
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>54</v>
@@ -2657,16 +2575,16 @@
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>55</v>
@@ -2677,16 +2595,16 @@
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>56</v>
@@ -2697,16 +2615,16 @@
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>57</v>
@@ -2717,16 +2635,16 @@
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>58</v>
@@ -2737,16 +2655,16 @@
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>59</v>
@@ -2757,16 +2675,16 @@
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>60</v>
@@ -2777,16 +2695,16 @@
     </row>
     <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>61</v>
@@ -2797,16 +2715,16 @@
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>62</v>
@@ -2817,10 +2735,10 @@
     </row>
     <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>88</v>
@@ -2837,16 +2755,16 @@
     </row>
     <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>64</v>
@@ -2857,16 +2775,16 @@
     </row>
     <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>65</v>
@@ -2877,16 +2795,16 @@
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>66</v>
@@ -2897,16 +2815,16 @@
     </row>
     <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>67</v>
@@ -2917,16 +2835,16 @@
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>68</v>
@@ -2937,16 +2855,16 @@
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>69</v>
@@ -2957,16 +2875,16 @@
     </row>
     <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>70</v>
@@ -2977,16 +2895,16 @@
     </row>
     <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>71</v>
@@ -2997,16 +2915,16 @@
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>72</v>
@@ -3017,16 +2935,16 @@
     </row>
     <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>73</v>
@@ -3037,16 +2955,16 @@
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -3055,16 +2973,16 @@
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -3073,16 +2991,16 @@
     </row>
     <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3091,16 +3009,16 @@
     </row>
     <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -3109,16 +3027,16 @@
     </row>
     <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -3127,16 +3045,16 @@
     </row>
     <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>74</v>
@@ -3147,16 +3065,16 @@
     </row>
     <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>75</v>
@@ -3167,16 +3085,16 @@
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>76</v>
@@ -3187,16 +3105,16 @@
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>77</v>
@@ -3207,16 +3125,16 @@
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>78</v>
@@ -3227,16 +3145,16 @@
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>79</v>
@@ -3247,16 +3165,16 @@
     </row>
     <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>80</v>
@@ -3267,16 +3185,16 @@
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -3285,16 +3203,16 @@
     </row>
     <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -3303,16 +3221,16 @@
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -3321,16 +3239,16 @@
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -3339,16 +3257,16 @@
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>81</v>
@@ -3359,16 +3277,16 @@
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>82</v>
@@ -3379,16 +3297,16 @@
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>83</v>
@@ -3399,16 +3317,16 @@
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>84</v>
@@ -3419,16 +3337,16 @@
     </row>
     <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>85</v>
@@ -3439,16 +3357,16 @@
     </row>
     <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>86</v>
@@ -3459,16 +3377,16 @@
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>87</v>
@@ -3479,16 +3397,16 @@
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -3497,16 +3415,16 @@
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -4453,88 +4371,70 @@
     <hyperlink ref="D11" r:id="rId61"/>
     <hyperlink ref="D12:D20" r:id="rId62" display="https://cdn.pixabay.com/photo/2016/03/05/19/02/salmon-1238248__340.jpg"/>
     <hyperlink ref="D21:D28" r:id="rId63" display="https://media.istockphoto.com/photos/single-fresh-raw-clean-isolated-one-alone-horizontally-oriented-on-picture-id1266340637?b=1&amp;k=20&amp;m=1266340637&amp;s=170667a&amp;w=0&amp;h=m215bqBaJETpZ5Tuyl2dhIdcfqpecCxBM7tXyAZzmn8="/>
-    <hyperlink ref="D29:D37" r:id="rId64" display="https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE="/>
-    <hyperlink ref="D38" r:id="rId65"/>
-    <hyperlink ref="D39" r:id="rId66"/>
-    <hyperlink ref="D40" r:id="rId67"/>
-    <hyperlink ref="D41" r:id="rId68"/>
-    <hyperlink ref="D42" r:id="rId69"/>
-    <hyperlink ref="D43" r:id="rId70"/>
-    <hyperlink ref="D44" r:id="rId71"/>
-    <hyperlink ref="D45" r:id="rId72"/>
-    <hyperlink ref="D46" r:id="rId73"/>
-    <hyperlink ref="D47" r:id="rId74"/>
-    <hyperlink ref="D48" r:id="rId75"/>
-    <hyperlink ref="D49" r:id="rId76"/>
-    <hyperlink ref="D50" r:id="rId77"/>
-    <hyperlink ref="D51" r:id="rId78"/>
-    <hyperlink ref="D52" r:id="rId79"/>
-    <hyperlink ref="D53" r:id="rId80"/>
-    <hyperlink ref="D54" r:id="rId81"/>
-    <hyperlink ref="D55" r:id="rId82"/>
-    <hyperlink ref="D56" r:id="rId83"/>
-    <hyperlink ref="D57" r:id="rId84"/>
-    <hyperlink ref="D69" r:id="rId85"/>
-    <hyperlink ref="D70" r:id="rId86"/>
-    <hyperlink ref="D71" r:id="rId87"/>
-    <hyperlink ref="D72" r:id="rId88"/>
-    <hyperlink ref="D73" r:id="rId89"/>
-    <hyperlink ref="D74" r:id="rId90"/>
-    <hyperlink ref="D75" r:id="rId91"/>
-    <hyperlink ref="D76" r:id="rId92"/>
-    <hyperlink ref="D77" r:id="rId93"/>
-    <hyperlink ref="D78" r:id="rId94"/>
-    <hyperlink ref="D79" r:id="rId95"/>
-    <hyperlink ref="D80" r:id="rId96"/>
-    <hyperlink ref="D81" r:id="rId97"/>
-    <hyperlink ref="D82" r:id="rId98"/>
-    <hyperlink ref="D83" r:id="rId99"/>
-    <hyperlink ref="D84" r:id="rId100"/>
-    <hyperlink ref="D85" r:id="rId101"/>
-    <hyperlink ref="D86" r:id="rId102"/>
-    <hyperlink ref="D87" r:id="rId103"/>
-    <hyperlink ref="D88" r:id="rId104"/>
-    <hyperlink ref="D89" r:id="rId105"/>
-    <hyperlink ref="D90" r:id="rId106"/>
-    <hyperlink ref="D91" r:id="rId107"/>
+    <hyperlink ref="D29:D36" r:id="rId64" display="https://media.istockphoto.com/photos/handful-of-walnuts-kernels-picture-id478097270?b=1&amp;k=20&amp;m=478097270&amp;s=170667a&amp;w=0&amp;h=HK063CJEThVmj9sSbYsaRuIgcLMjXYE4oSMdcjrF7qE="/>
+    <hyperlink ref="D69" r:id="rId65"/>
+    <hyperlink ref="D70" r:id="rId66"/>
+    <hyperlink ref="D71" r:id="rId67"/>
+    <hyperlink ref="D72" r:id="rId68"/>
+    <hyperlink ref="D73" r:id="rId69"/>
+    <hyperlink ref="D74" r:id="rId70"/>
+    <hyperlink ref="D75" r:id="rId71"/>
+    <hyperlink ref="D76" r:id="rId72"/>
+    <hyperlink ref="D77" r:id="rId73"/>
+    <hyperlink ref="D78" r:id="rId74"/>
+    <hyperlink ref="D79" r:id="rId75"/>
+    <hyperlink ref="D80" r:id="rId76"/>
+    <hyperlink ref="D81" r:id="rId77"/>
+    <hyperlink ref="D82" r:id="rId78"/>
+    <hyperlink ref="D83" r:id="rId79"/>
+    <hyperlink ref="D84" r:id="rId80"/>
+    <hyperlink ref="D85" r:id="rId81"/>
+    <hyperlink ref="D86" r:id="rId82"/>
+    <hyperlink ref="D87" r:id="rId83"/>
+    <hyperlink ref="D108" r:id="rId84"/>
+    <hyperlink ref="D109" r:id="rId85"/>
+    <hyperlink ref="D110" r:id="rId86"/>
+    <hyperlink ref="D111" r:id="rId87"/>
+    <hyperlink ref="D112" r:id="rId88"/>
+    <hyperlink ref="D113" r:id="rId89"/>
+    <hyperlink ref="D114" r:id="rId90"/>
+    <hyperlink ref="D115" r:id="rId91"/>
+    <hyperlink ref="D116" r:id="rId92"/>
+    <hyperlink ref="D117" r:id="rId93"/>
+    <hyperlink ref="D118" r:id="rId94"/>
+    <hyperlink ref="D119" r:id="rId95"/>
+    <hyperlink ref="D120" r:id="rId96"/>
+    <hyperlink ref="D121" r:id="rId97"/>
+    <hyperlink ref="D122" r:id="rId98"/>
+    <hyperlink ref="D123" r:id="rId99"/>
+    <hyperlink ref="D124" r:id="rId100"/>
+    <hyperlink ref="D125" r:id="rId101"/>
+    <hyperlink ref="D126" r:id="rId102"/>
+    <hyperlink ref="D127" r:id="rId103"/>
+    <hyperlink ref="D38" r:id="rId104"/>
+    <hyperlink ref="D57" r:id="rId105" display="https://cdn.pixabay.com/photo/2014/08/21/00/19/green-422995__340.jpg"/>
+    <hyperlink ref="D88" r:id="rId106"/>
+    <hyperlink ref="D90" r:id="rId107"/>
     <hyperlink ref="D92" r:id="rId108"/>
-    <hyperlink ref="D93" r:id="rId109"/>
-    <hyperlink ref="D94" r:id="rId110"/>
-    <hyperlink ref="D95" r:id="rId111"/>
-    <hyperlink ref="D96" r:id="rId112"/>
-    <hyperlink ref="D97" r:id="rId113"/>
-    <hyperlink ref="D98" r:id="rId114"/>
-    <hyperlink ref="D99" r:id="rId115"/>
-    <hyperlink ref="D100" r:id="rId116"/>
-    <hyperlink ref="D101" r:id="rId117"/>
-    <hyperlink ref="D102" r:id="rId118"/>
-    <hyperlink ref="D103" r:id="rId119"/>
-    <hyperlink ref="D104" r:id="rId120"/>
-    <hyperlink ref="D105" r:id="rId121"/>
-    <hyperlink ref="D106" r:id="rId122"/>
-    <hyperlink ref="D107" r:id="rId123"/>
-    <hyperlink ref="D108" r:id="rId124"/>
-    <hyperlink ref="D109" r:id="rId125"/>
-    <hyperlink ref="D110" r:id="rId126"/>
-    <hyperlink ref="D111" r:id="rId127"/>
-    <hyperlink ref="D112" r:id="rId128"/>
-    <hyperlink ref="D113" r:id="rId129"/>
-    <hyperlink ref="D114" r:id="rId130"/>
-    <hyperlink ref="D115" r:id="rId131"/>
-    <hyperlink ref="D116" r:id="rId132"/>
-    <hyperlink ref="D117" r:id="rId133"/>
-    <hyperlink ref="D118" r:id="rId134"/>
-    <hyperlink ref="D119" r:id="rId135"/>
-    <hyperlink ref="D120" r:id="rId136"/>
-    <hyperlink ref="D121" r:id="rId137"/>
-    <hyperlink ref="D122" r:id="rId138"/>
-    <hyperlink ref="D123" r:id="rId139"/>
-    <hyperlink ref="D124" r:id="rId140"/>
-    <hyperlink ref="D125" r:id="rId141"/>
-    <hyperlink ref="D126" r:id="rId142"/>
-    <hyperlink ref="D127" r:id="rId143"/>
+    <hyperlink ref="D94" r:id="rId109"/>
+    <hyperlink ref="D96" r:id="rId110"/>
+    <hyperlink ref="D98" r:id="rId111"/>
+    <hyperlink ref="D100" r:id="rId112"/>
+    <hyperlink ref="D102" r:id="rId113"/>
+    <hyperlink ref="D104" r:id="rId114"/>
+    <hyperlink ref="D106" r:id="rId115"/>
+    <hyperlink ref="D89" r:id="rId116"/>
+    <hyperlink ref="D91" r:id="rId117"/>
+    <hyperlink ref="D93" r:id="rId118"/>
+    <hyperlink ref="D95" r:id="rId119"/>
+    <hyperlink ref="D97" r:id="rId120"/>
+    <hyperlink ref="D99" r:id="rId121"/>
+    <hyperlink ref="D101" r:id="rId122"/>
+    <hyperlink ref="D103" r:id="rId123"/>
+    <hyperlink ref="D105" r:id="rId124"/>
+    <hyperlink ref="D107" r:id="rId125"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId144"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>